--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H2">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I2">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J2">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.67252457348156</v>
+        <v>8.880996000000001</v>
       </c>
       <c r="N2">
-        <v>8.67252457348156</v>
+        <v>26.642988</v>
       </c>
       <c r="O2">
-        <v>0.2094537505273163</v>
+        <v>0.2027609928815243</v>
       </c>
       <c r="P2">
-        <v>0.2094537505273163</v>
+        <v>0.2196295071201028</v>
       </c>
       <c r="Q2">
-        <v>63.88188289080625</v>
+        <v>68.64133353694801</v>
       </c>
       <c r="R2">
-        <v>63.88188289080625</v>
+        <v>617.7720018325321</v>
       </c>
       <c r="S2">
-        <v>0.04178583050257002</v>
+        <v>0.04067215060992758</v>
       </c>
       <c r="T2">
-        <v>0.04178583050257002</v>
+        <v>0.04643078044576233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H3">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I3">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J3">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.46565903229092</v>
+        <v>8.010902</v>
       </c>
       <c r="N3">
-        <v>7.46565903229092</v>
+        <v>24.032706</v>
       </c>
       <c r="O3">
-        <v>0.1803062385378426</v>
+        <v>0.1828959773652177</v>
       </c>
       <c r="P3">
-        <v>0.1803062385378426</v>
+        <v>0.1981118399160912</v>
       </c>
       <c r="Q3">
-        <v>54.99210200704454</v>
+        <v>61.91636569972599</v>
       </c>
       <c r="R3">
-        <v>54.99210200704454</v>
+        <v>557.2472912975339</v>
       </c>
       <c r="S3">
-        <v>0.03597092868058076</v>
+        <v>0.0366873954976863</v>
       </c>
       <c r="T3">
-        <v>0.03597092868058076</v>
+        <v>0.04188183757030387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H4">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I4">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J4">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.32860237077088</v>
+        <v>7.164730666666666</v>
       </c>
       <c r="N4">
-        <v>6.32860237077088</v>
+        <v>21.494192</v>
       </c>
       <c r="O4">
-        <v>0.1528447098561392</v>
+        <v>0.1635771374857098</v>
       </c>
       <c r="P4">
-        <v>0.1528447098561392</v>
+        <v>0.1771857869284352</v>
       </c>
       <c r="Q4">
-        <v>46.61653386930282</v>
+        <v>55.37629646416533</v>
       </c>
       <c r="R4">
-        <v>46.61653386930282</v>
+        <v>498.3866681774879</v>
       </c>
       <c r="S4">
-        <v>0.03049237897714411</v>
+        <v>0.03281219862662177</v>
       </c>
       <c r="T4">
-        <v>0.03049237897714411</v>
+        <v>0.03745796491035694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H5">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I5">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J5">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.545977002746509</v>
+        <v>9.651517</v>
       </c>
       <c r="N5">
-        <v>9.545977002746509</v>
+        <v>28.954551</v>
       </c>
       <c r="O5">
-        <v>0.2305488636822733</v>
+        <v>0.2203526687471665</v>
       </c>
       <c r="P5">
-        <v>0.2305488636822733</v>
+        <v>0.2386847062729556</v>
       </c>
       <c r="Q5">
-        <v>70.31574022084018</v>
+        <v>74.59670036272099</v>
       </c>
       <c r="R5">
-        <v>70.31574022084018</v>
+        <v>671.3703032644891</v>
       </c>
       <c r="S5">
-        <v>0.04599428616644037</v>
+        <v>0.04420089289965634</v>
       </c>
       <c r="T5">
-        <v>0.04599428616644037</v>
+        <v>0.05045914521248999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.36600771200364</v>
+        <v>7.729012999999999</v>
       </c>
       <c r="H6">
-        <v>7.36600771200364</v>
+        <v>23.187039</v>
       </c>
       <c r="I6">
-        <v>0.1994990798559153</v>
+        <v>0.2005915932444304</v>
       </c>
       <c r="J6">
-        <v>0.1994990798559153</v>
+        <v>0.2114050204573468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.39267641555409</v>
+        <v>10.0921725</v>
       </c>
       <c r="N6">
-        <v>9.39267641555409</v>
+        <v>20.184345</v>
       </c>
       <c r="O6">
-        <v>0.2268464373964287</v>
+        <v>0.2304132235203817</v>
       </c>
       <c r="P6">
-        <v>0.2268464373964287</v>
+        <v>0.1663881597624152</v>
       </c>
       <c r="Q6">
-        <v>69.18652691332613</v>
+        <v>78.00253245074249</v>
       </c>
       <c r="R6">
-        <v>69.18652691332613</v>
+        <v>468.015194704455</v>
       </c>
       <c r="S6">
-        <v>0.04525565552918</v>
+        <v>0.04621895561053843</v>
       </c>
       <c r="T6">
-        <v>0.04525565552918</v>
+        <v>0.03517529231843368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H7">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I7">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J7">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.67252457348156</v>
+        <v>8.880996000000001</v>
       </c>
       <c r="N7">
-        <v>8.67252457348156</v>
+        <v>26.642988</v>
       </c>
       <c r="O7">
-        <v>0.2094537505273163</v>
+        <v>0.2027609928815243</v>
       </c>
       <c r="P7">
-        <v>0.2094537505273163</v>
+        <v>0.2196295071201028</v>
       </c>
       <c r="Q7">
-        <v>73.79155357135362</v>
+        <v>81.32368297715202</v>
       </c>
       <c r="R7">
-        <v>73.79155357135362</v>
+        <v>731.9131467943681</v>
       </c>
       <c r="S7">
-        <v>0.04826785327108229</v>
+        <v>0.04818684183080918</v>
       </c>
       <c r="T7">
-        <v>0.04826785327108229</v>
+        <v>0.05500945093557129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H8">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I8">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J8">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.46565903229092</v>
+        <v>8.010902</v>
       </c>
       <c r="N8">
-        <v>7.46565903229092</v>
+        <v>24.032706</v>
       </c>
       <c r="O8">
-        <v>0.1803062385378426</v>
+        <v>0.1828959773652177</v>
       </c>
       <c r="P8">
-        <v>0.1803062385378426</v>
+        <v>0.1981118399160912</v>
       </c>
       <c r="Q8">
-        <v>63.52274631902221</v>
+        <v>73.35619277489067</v>
       </c>
       <c r="R8">
-        <v>63.52274631902221</v>
+        <v>660.2057349740161</v>
       </c>
       <c r="S8">
-        <v>0.04155091538678528</v>
+        <v>0.04346585310883068</v>
       </c>
       <c r="T8">
-        <v>0.04155091538678528</v>
+        <v>0.04962003366724519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H9">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I9">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J9">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.32860237077088</v>
+        <v>7.164730666666666</v>
       </c>
       <c r="N9">
-        <v>6.32860237077088</v>
+        <v>21.494192</v>
       </c>
       <c r="O9">
-        <v>0.1528447098561392</v>
+        <v>0.1635771374857098</v>
       </c>
       <c r="P9">
-        <v>0.1528447098561392</v>
+        <v>0.1771857869284352</v>
       </c>
       <c r="Q9">
-        <v>53.84791901339752</v>
+        <v>65.60776351579023</v>
       </c>
       <c r="R9">
-        <v>53.84791901339752</v>
+        <v>590.469871642112</v>
       </c>
       <c r="S9">
-        <v>0.03522250620971872</v>
+        <v>0.03887466489062878</v>
       </c>
       <c r="T9">
-        <v>0.03522250620971872</v>
+        <v>0.04437879490933031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H10">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I10">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J10">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.545977002746509</v>
+        <v>9.651517</v>
       </c>
       <c r="N10">
-        <v>9.545977002746509</v>
+        <v>28.954551</v>
       </c>
       <c r="O10">
-        <v>0.2305488636822733</v>
+        <v>0.2203526687471665</v>
       </c>
       <c r="P10">
-        <v>0.2305488636822733</v>
+        <v>0.2386847062729556</v>
       </c>
       <c r="Q10">
-        <v>81.22346237484275</v>
+        <v>88.37937870443734</v>
       </c>
       <c r="R10">
-        <v>81.22346237484275</v>
+        <v>795.4144083399361</v>
       </c>
       <c r="S10">
-        <v>0.0531291451979965</v>
+        <v>0.05236756362758927</v>
       </c>
       <c r="T10">
-        <v>0.0531291451979965</v>
+        <v>0.05978210674403323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.508658920032349</v>
+        <v>9.157045333333334</v>
       </c>
       <c r="H11">
-        <v>8.508658920032349</v>
+        <v>27.471136</v>
       </c>
       <c r="I11">
-        <v>0.230446354622747</v>
+        <v>0.2376534122564951</v>
       </c>
       <c r="J11">
-        <v>0.230446354622747</v>
+        <v>0.2504647561107978</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.39267641555409</v>
+        <v>10.0921725</v>
       </c>
       <c r="N11">
-        <v>9.39267641555409</v>
+        <v>20.184345</v>
       </c>
       <c r="O11">
-        <v>0.2268464373964287</v>
+        <v>0.2304132235203817</v>
       </c>
       <c r="P11">
-        <v>0.2268464373964287</v>
+        <v>0.1663881597624152</v>
       </c>
       <c r="Q11">
-        <v>79.91907996618178</v>
+        <v>92.41448109432001</v>
       </c>
       <c r="R11">
-        <v>79.91907996618178</v>
+        <v>554.48688656592</v>
       </c>
       <c r="S11">
-        <v>0.05227593455716417</v>
+        <v>0.05475848879863723</v>
       </c>
       <c r="T11">
-        <v>0.05227593455716417</v>
+        <v>0.0416743698546178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H12">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I12">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J12">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.67252457348156</v>
+        <v>8.880996000000001</v>
       </c>
       <c r="N12">
-        <v>8.67252457348156</v>
+        <v>26.642988</v>
       </c>
       <c r="O12">
-        <v>0.2094537505273163</v>
+        <v>0.2027609928815243</v>
       </c>
       <c r="P12">
-        <v>0.2094537505273163</v>
+        <v>0.2196295071201028</v>
       </c>
       <c r="Q12">
-        <v>56.38941144981561</v>
+        <v>62.52767365254001</v>
       </c>
       <c r="R12">
-        <v>56.38941144981561</v>
+        <v>562.74906287286</v>
       </c>
       <c r="S12">
-        <v>0.03688492389946114</v>
+        <v>0.03704961470067592</v>
       </c>
       <c r="T12">
-        <v>0.03688492389946114</v>
+        <v>0.04229534214370464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H13">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I13">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J13">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.46565903229092</v>
+        <v>8.010902</v>
       </c>
       <c r="N13">
-        <v>7.46565903229092</v>
+        <v>24.032706</v>
       </c>
       <c r="O13">
-        <v>0.1803062385378426</v>
+        <v>0.1828959773652177</v>
       </c>
       <c r="P13">
-        <v>0.1803062385378426</v>
+        <v>0.1981118399160912</v>
       </c>
       <c r="Q13">
-        <v>48.54228031859955</v>
+        <v>56.40167678473</v>
       </c>
       <c r="R13">
-        <v>48.54228031859955</v>
+        <v>507.6150910625701</v>
       </c>
       <c r="S13">
-        <v>0.03175203055721394</v>
+        <v>0.03341976874045142</v>
       </c>
       <c r="T13">
-        <v>0.03175203055721394</v>
+        <v>0.03815155878571365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H14">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I14">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J14">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.32860237077088</v>
+        <v>7.164730666666666</v>
       </c>
       <c r="N14">
-        <v>6.32860237077088</v>
+        <v>21.494192</v>
       </c>
       <c r="O14">
-        <v>0.1528447098561392</v>
+        <v>0.1635771374857098</v>
       </c>
       <c r="P14">
-        <v>0.1528447098561392</v>
+        <v>0.1771857869284352</v>
       </c>
       <c r="Q14">
-        <v>41.14905180884541</v>
+        <v>50.44411020269333</v>
       </c>
       <c r="R14">
-        <v>41.14905180884541</v>
+        <v>453.99699182424</v>
       </c>
       <c r="S14">
-        <v>0.02691603982877196</v>
+        <v>0.02988972302589899</v>
       </c>
       <c r="T14">
-        <v>0.02691603982877196</v>
+        <v>0.03412170604672715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H15">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I15">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J15">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.545977002746509</v>
+        <v>9.651517</v>
       </c>
       <c r="N15">
-        <v>9.545977002746509</v>
+        <v>28.954551</v>
       </c>
       <c r="O15">
-        <v>0.2305488636822733</v>
+        <v>0.2203526687471665</v>
       </c>
       <c r="P15">
-        <v>0.2305488636822733</v>
+        <v>0.2386847062729556</v>
       </c>
       <c r="Q15">
-        <v>62.06866528165451</v>
+        <v>67.952615362955</v>
       </c>
       <c r="R15">
-        <v>62.06866528165451</v>
+        <v>611.5735382665951</v>
       </c>
       <c r="S15">
-        <v>0.04059978525387568</v>
+        <v>0.04026406341439896</v>
       </c>
       <c r="T15">
-        <v>0.04059978525387568</v>
+        <v>0.04596491358860896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.50207571878672</v>
+        <v>7.040615</v>
       </c>
       <c r="H16">
-        <v>6.50207571878672</v>
+        <v>21.121845</v>
       </c>
       <c r="I16">
-        <v>0.1761005654307953</v>
+        <v>0.1827255537376681</v>
       </c>
       <c r="J16">
-        <v>0.1761005654307953</v>
+        <v>0.1925758642283695</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.39267641555409</v>
+        <v>10.0921725</v>
       </c>
       <c r="N16">
-        <v>9.39267641555409</v>
+        <v>20.184345</v>
       </c>
       <c r="O16">
-        <v>0.2268464373964287</v>
+        <v>0.2304132235203817</v>
       </c>
       <c r="P16">
-        <v>0.2268464373964287</v>
+        <v>0.1663881597624152</v>
       </c>
       <c r="Q16">
-        <v>61.07189325599494</v>
+        <v>71.0551010860875</v>
       </c>
       <c r="R16">
-        <v>61.07189325599494</v>
+        <v>426.330606516525</v>
       </c>
       <c r="S16">
-        <v>0.0399477858914726</v>
+        <v>0.04210238385624284</v>
       </c>
       <c r="T16">
-        <v>0.0399477858914726</v>
+        <v>0.03204234366361513</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H17">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I17">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J17">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.67252457348156</v>
+        <v>8.880996000000001</v>
       </c>
       <c r="N17">
-        <v>8.67252457348156</v>
+        <v>26.642988</v>
       </c>
       <c r="O17">
-        <v>0.2094537505273163</v>
+        <v>0.2027609928815243</v>
       </c>
       <c r="P17">
-        <v>0.2094537505273163</v>
+        <v>0.2196295071201028</v>
       </c>
       <c r="Q17">
-        <v>74.97596719528032</v>
+        <v>77.19174334184402</v>
       </c>
       <c r="R17">
-        <v>74.97596719528032</v>
+        <v>694.725690076596</v>
       </c>
       <c r="S17">
-        <v>0.04904259103231786</v>
+        <v>0.04573853754388974</v>
       </c>
       <c r="T17">
-        <v>0.04904259103231786</v>
+        <v>0.05221449967025443</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H18">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I18">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J18">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.46565903229092</v>
+        <v>8.010902</v>
       </c>
       <c r="N18">
-        <v>7.46565903229092</v>
+        <v>24.032706</v>
       </c>
       <c r="O18">
-        <v>0.1803062385378426</v>
+        <v>0.1828959773652177</v>
       </c>
       <c r="P18">
-        <v>0.1803062385378426</v>
+        <v>0.1981118399160912</v>
       </c>
       <c r="Q18">
-        <v>64.54233734981327</v>
+        <v>69.629069883678</v>
       </c>
       <c r="R18">
-        <v>64.54233734981327</v>
+        <v>626.6616289531021</v>
       </c>
       <c r="S18">
-        <v>0.04221784090723995</v>
+        <v>0.04125741548441429</v>
       </c>
       <c r="T18">
-        <v>0.04221784090723995</v>
+        <v>0.04709891095969873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H19">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I19">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J19">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.32860237077088</v>
+        <v>7.164730666666666</v>
       </c>
       <c r="N19">
-        <v>6.32860237077088</v>
+        <v>21.494192</v>
       </c>
       <c r="O19">
-        <v>0.1528447098561392</v>
+        <v>0.1635771374857098</v>
       </c>
       <c r="P19">
-        <v>0.1528447098561392</v>
+        <v>0.1771857869284352</v>
       </c>
       <c r="Q19">
-        <v>54.71222130563613</v>
+        <v>62.274327196496</v>
       </c>
       <c r="R19">
-        <v>54.71222130563613</v>
+        <v>560.468944768464</v>
       </c>
       <c r="S19">
-        <v>0.03578785568678717</v>
+        <v>0.03689949895137791</v>
       </c>
       <c r="T19">
-        <v>0.03578785568678717</v>
+        <v>0.04212397202207144</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H20">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I20">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J20">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.545977002746509</v>
+        <v>9.651517</v>
       </c>
       <c r="N20">
-        <v>9.545977002746509</v>
+        <v>28.954551</v>
       </c>
       <c r="O20">
-        <v>0.2305488636822733</v>
+        <v>0.2203526687471665</v>
       </c>
       <c r="P20">
-        <v>0.2305488636822733</v>
+        <v>0.2386847062729556</v>
       </c>
       <c r="Q20">
-        <v>82.52716409629029</v>
+        <v>83.888949293913</v>
       </c>
       <c r="R20">
-        <v>82.52716409629029</v>
+        <v>755.000543645217</v>
       </c>
       <c r="S20">
-        <v>0.05398191059396067</v>
+        <v>0.04970684286537118</v>
       </c>
       <c r="T20">
-        <v>0.05398191059396067</v>
+        <v>0.05674466368568965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.64522972059812</v>
+        <v>8.691789</v>
       </c>
       <c r="H21">
-        <v>8.64522972059812</v>
+        <v>26.075367</v>
       </c>
       <c r="I21">
-        <v>0.2341452034582779</v>
+        <v>0.2255785834044289</v>
       </c>
       <c r="J21">
-        <v>0.2341452034582779</v>
+        <v>0.2377390012613438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.39267641555409</v>
+        <v>10.0921725</v>
       </c>
       <c r="N21">
-        <v>9.39267641555409</v>
+        <v>20.184345</v>
       </c>
       <c r="O21">
-        <v>0.2268464373964287</v>
+        <v>0.2304132235203817</v>
       </c>
       <c r="P21">
-        <v>0.2268464373964287</v>
+        <v>0.1663881597624152</v>
       </c>
       <c r="Q21">
-        <v>81.20184530370925</v>
+        <v>87.7190339216025</v>
       </c>
       <c r="R21">
-        <v>81.20184530370925</v>
+        <v>526.314203529615</v>
       </c>
       <c r="S21">
-        <v>0.05311500523797229</v>
+        <v>0.05197628855937572</v>
       </c>
       <c r="T21">
-        <v>0.05311500523797229</v>
+        <v>0.0395569549236295</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H22">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I22">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J22">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.67252457348156</v>
+        <v>8.880996000000001</v>
       </c>
       <c r="N22">
-        <v>8.67252457348156</v>
+        <v>26.642988</v>
       </c>
       <c r="O22">
-        <v>0.2094537505273163</v>
+        <v>0.2027609928815243</v>
       </c>
       <c r="P22">
-        <v>0.2094537505273163</v>
+        <v>0.2196295071201028</v>
       </c>
       <c r="Q22">
-        <v>51.1726010904721</v>
+        <v>52.51003449848401</v>
       </c>
       <c r="R22">
-        <v>51.1726010904721</v>
+        <v>315.060206990904</v>
       </c>
       <c r="S22">
-        <v>0.03347255182188495</v>
+        <v>0.03111384819622189</v>
       </c>
       <c r="T22">
-        <v>0.03347255182188495</v>
+        <v>0.02367943392481009</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H23">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I23">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J23">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.46565903229092</v>
+        <v>8.010902</v>
       </c>
       <c r="N23">
-        <v>7.46565903229092</v>
+        <v>24.032706</v>
       </c>
       <c r="O23">
-        <v>0.1803062385378426</v>
+        <v>0.1828959773652177</v>
       </c>
       <c r="P23">
-        <v>0.1803062385378426</v>
+        <v>0.1981118399160912</v>
       </c>
       <c r="Q23">
-        <v>44.05143949722306</v>
+        <v>47.365491481358</v>
       </c>
       <c r="R23">
-        <v>44.05143949722306</v>
+        <v>284.192948888148</v>
       </c>
       <c r="S23">
-        <v>0.02881452300602266</v>
+        <v>0.02806554453383498</v>
       </c>
       <c r="T23">
-        <v>0.02881452300602266</v>
+        <v>0.02135949893312969</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H24">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I24">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J24">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.32860237077088</v>
+        <v>7.164730666666666</v>
       </c>
       <c r="N24">
-        <v>6.32860237077088</v>
+        <v>21.494192</v>
       </c>
       <c r="O24">
-        <v>0.1528447098561392</v>
+        <v>0.1635771374857098</v>
       </c>
       <c r="P24">
-        <v>0.1528447098561392</v>
+        <v>0.1771857869284352</v>
       </c>
       <c r="Q24">
-        <v>37.34218817550899</v>
+        <v>42.36239431692267</v>
       </c>
       <c r="R24">
-        <v>37.34218817550899</v>
+        <v>254.174365901536</v>
       </c>
       <c r="S24">
-        <v>0.02442592915371722</v>
+        <v>0.02510105199118233</v>
       </c>
       <c r="T24">
-        <v>0.02442592915371722</v>
+        <v>0.01910334903994933</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H25">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I25">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J25">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.545977002746509</v>
+        <v>9.651517</v>
       </c>
       <c r="N25">
-        <v>9.545977002746509</v>
+        <v>28.954551</v>
       </c>
       <c r="O25">
-        <v>0.2305488636822733</v>
+        <v>0.2203526687471665</v>
       </c>
       <c r="P25">
-        <v>0.2305488636822733</v>
+        <v>0.2386847062729556</v>
       </c>
       <c r="Q25">
-        <v>56.32644439821561</v>
+        <v>57.065839308193</v>
       </c>
       <c r="R25">
-        <v>56.32644439821561</v>
+        <v>342.395035849158</v>
       </c>
       <c r="S25">
-        <v>0.03684373647000008</v>
+        <v>0.03381330594015073</v>
       </c>
       <c r="T25">
-        <v>0.03684373647000008</v>
+        <v>0.02573387704213371</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.90054264555736</v>
+        <v>5.912629</v>
       </c>
       <c r="H26">
-        <v>5.90054264555736</v>
+        <v>11.825258</v>
       </c>
       <c r="I26">
-        <v>0.1598087966322645</v>
+        <v>0.1534508573569774</v>
       </c>
       <c r="J26">
-        <v>0.1598087966322645</v>
+        <v>0.1078153579421419</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.39267641555409</v>
+        <v>10.0921725</v>
       </c>
       <c r="N26">
-        <v>9.39267641555409</v>
+        <v>20.184345</v>
       </c>
       <c r="O26">
-        <v>0.2268464373964287</v>
+        <v>0.2304132235203817</v>
       </c>
       <c r="P26">
-        <v>0.2268464373964287</v>
+        <v>0.1663881597624152</v>
       </c>
       <c r="Q26">
-        <v>55.42188774589776</v>
+        <v>59.6712717965025</v>
       </c>
       <c r="R26">
-        <v>55.42188774589776</v>
+        <v>238.68508718601</v>
       </c>
       <c r="S26">
-        <v>0.03625205618063958</v>
+        <v>0.03535710669558743</v>
       </c>
       <c r="T26">
-        <v>0.03625205618063958</v>
+        <v>0.01793919900211909</v>
       </c>
     </row>
   </sheetData>
